--- a/revisão/artigos.xlsx
+++ b/revisão/artigos.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pucpredu-my.sharepoint.com/personal/franchesco_sanches_pucpr_edu_br/Documents/Documents/GitHub/Mestre-Tchesko/revisão/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CEDF377-272F-431C-AA35-AFCE89F2EB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{5CEDF377-272F-431C-AA35-AFCE89F2EB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82E8C961-418D-4AE1-9560-FA1249EFA9D4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6A8A42E0-68CB-4732-A82B-58357CAB5FF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{6A8A42E0-68CB-4732-A82B-58357CAB5FF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Bases</t>
   </si>
@@ -75,6 +76,33 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Variável</t>
+  </si>
+  <si>
+    <t>Horário de Maior Demanda</t>
+  </si>
+  <si>
+    <t>Valor da Demanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Vazão de entrada - FT01</t>
+  </si>
+  <si>
+    <t>383,87 m³/h</t>
+  </si>
+  <si>
+    <t>Vazão de gravidade - FT02</t>
+  </si>
+  <si>
+    <t>326,17 m³/h</t>
+  </si>
+  <si>
+    <t>Vazão de recalque - FT03</t>
+  </si>
+  <si>
+    <t>194,35 m³/h</t>
   </si>
 </sst>
 </file>
@@ -110,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -120,6 +148,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209C42F9-3CC1-45DA-B69E-754B8023F9CF}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,4 +616,69 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAFD913-6ED6-4D2B-9FE3-A15B718B7D0C}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44112.875</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44124.75</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44161.791666666664</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>